--- a/src/test/resources/testdata/TestDataSheet.xlsx
+++ b/src/test/resources/testdata/TestDataSheet.xlsx
@@ -3,21 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tarun\eclipse-workspace\tdd-group-slytherins\src\test\resources\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705A186C-6F03-455C-9E22-5CCFE072833A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9F144AA4-1F2D-4132-BD77-E2DA80F2B957}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="1" xr2:uid="{DBD15BF4-9AE1-41C1-950E-A39D6B6BCF3F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14055" windowHeight="2025" activeTab="1" xr2:uid="{DBD15BF4-9AE1-41C1-950E-A39D6B6BCF3F}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
     <sheet name="STAGING" sheetId="3" r:id="rId2"/>
     <sheet name="DEV" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -143,10 +139,10 @@
     <t>ExpectedValue</t>
   </si>
   <si>
-    <t>rgb(241, 51, 64, 1)</t>
-  </si>
-  <si>
     <t>Username,Password,ExpectedValue</t>
+  </si>
+  <si>
+    <t>241, 51, 64, 1</t>
   </si>
 </sst>
 </file>
@@ -713,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9819D-4160-4ABC-8BBC-3B4A6EB05AD0}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -728,7 +724,7 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -788,7 +784,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
@@ -812,7 +808,7 @@
         <v>33</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
